--- a/dymo_input.xlsx
+++ b/dymo_input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -22,12 +22,6 @@
     <t>QR-Code</t>
   </si>
   <si>
-    <t>100001000</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001000}}</t>
-  </si>
-  <si>
     <t>100001001</t>
   </si>
   <si>
@@ -50,6 +44,282 @@
   </si>
   <si>
     <t>{"SensTek_S":{"mn":"ST7000","sn":100001004}}</t>
+  </si>
+  <si>
+    <t>100001005</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001005}}</t>
+  </si>
+  <si>
+    <t>100001006</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001006}}</t>
+  </si>
+  <si>
+    <t>100001007</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001007}}</t>
+  </si>
+  <si>
+    <t>100001008</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001008}}</t>
+  </si>
+  <si>
+    <t>100001009</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001009}}</t>
+  </si>
+  <si>
+    <t>100001010</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001010}}</t>
+  </si>
+  <si>
+    <t>100001011</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001011}}</t>
+  </si>
+  <si>
+    <t>100001012</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001012}}</t>
+  </si>
+  <si>
+    <t>100001013</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001013}}</t>
+  </si>
+  <si>
+    <t>100001014</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001014}}</t>
+  </si>
+  <si>
+    <t>100001015</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001015}}</t>
+  </si>
+  <si>
+    <t>100001016</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001016}}</t>
+  </si>
+  <si>
+    <t>100001017</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001017}}</t>
+  </si>
+  <si>
+    <t>100001018</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001018}}</t>
+  </si>
+  <si>
+    <t>100001019</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001019}}</t>
+  </si>
+  <si>
+    <t>100001020</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001020}}</t>
+  </si>
+  <si>
+    <t>100001021</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001021}}</t>
+  </si>
+  <si>
+    <t>100001022</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001022}}</t>
+  </si>
+  <si>
+    <t>100001023</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001023}}</t>
+  </si>
+  <si>
+    <t>100001024</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001024}}</t>
+  </si>
+  <si>
+    <t>100001025</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001025}}</t>
+  </si>
+  <si>
+    <t>100001026</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001026}}</t>
+  </si>
+  <si>
+    <t>100001027</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001027}}</t>
+  </si>
+  <si>
+    <t>100001028</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001028}}</t>
+  </si>
+  <si>
+    <t>100001029</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001029}}</t>
+  </si>
+  <si>
+    <t>100001030</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001030}}</t>
+  </si>
+  <si>
+    <t>100001031</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001031}}</t>
+  </si>
+  <si>
+    <t>100001032</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001032}}</t>
+  </si>
+  <si>
+    <t>100001033</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001033}}</t>
+  </si>
+  <si>
+    <t>100001034</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001034}}</t>
+  </si>
+  <si>
+    <t>100001035</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001035}}</t>
+  </si>
+  <si>
+    <t>100001036</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001036}}</t>
+  </si>
+  <si>
+    <t>100001037</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001037}}</t>
+  </si>
+  <si>
+    <t>100001038</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001038}}</t>
+  </si>
+  <si>
+    <t>100001039</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001039}}</t>
+  </si>
+  <si>
+    <t>100001040</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001040}}</t>
+  </si>
+  <si>
+    <t>100001041</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001041}}</t>
+  </si>
+  <si>
+    <t>100001042</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001042}}</t>
+  </si>
+  <si>
+    <t>100001043</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001043}}</t>
+  </si>
+  <si>
+    <t>100001044</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001044}}</t>
+  </si>
+  <si>
+    <t>100001045</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001045}}</t>
+  </si>
+  <si>
+    <t>100001046</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001046}}</t>
+  </si>
+  <si>
+    <t>100001047</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001047}}</t>
+  </si>
+  <si>
+    <t>100001048</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001048}}</t>
+  </si>
+  <si>
+    <t>100001049</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001049}}</t>
+  </si>
+  <si>
+    <t>100001050</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001050}}</t>
   </si>
 </sst>
 </file>
@@ -381,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +705,366 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dymo_input.xlsx
+++ b/dymo_input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>ID</t>
   </si>
@@ -22,210 +22,6 @@
     <t>QR-Code</t>
   </si>
   <si>
-    <t>100001001</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001001}}</t>
-  </si>
-  <si>
-    <t>100001002</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001002}}</t>
-  </si>
-  <si>
-    <t>100001003</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001003}}</t>
-  </si>
-  <si>
-    <t>100001004</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001004}}</t>
-  </si>
-  <si>
-    <t>100001005</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001005}}</t>
-  </si>
-  <si>
-    <t>100001006</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001006}}</t>
-  </si>
-  <si>
-    <t>100001007</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001007}}</t>
-  </si>
-  <si>
-    <t>100001008</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001008}}</t>
-  </si>
-  <si>
-    <t>100001009</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001009}}</t>
-  </si>
-  <si>
-    <t>100001010</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001010}}</t>
-  </si>
-  <si>
-    <t>100001011</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001011}}</t>
-  </si>
-  <si>
-    <t>100001012</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001012}}</t>
-  </si>
-  <si>
-    <t>100001013</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001013}}</t>
-  </si>
-  <si>
-    <t>100001014</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001014}}</t>
-  </si>
-  <si>
-    <t>100001015</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001015}}</t>
-  </si>
-  <si>
-    <t>100001016</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001016}}</t>
-  </si>
-  <si>
-    <t>100001017</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001017}}</t>
-  </si>
-  <si>
-    <t>100001018</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001018}}</t>
-  </si>
-  <si>
-    <t>100001019</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001019}}</t>
-  </si>
-  <si>
-    <t>100001020</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001020}}</t>
-  </si>
-  <si>
-    <t>100001021</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001021}}</t>
-  </si>
-  <si>
-    <t>100001022</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001022}}</t>
-  </si>
-  <si>
-    <t>100001023</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001023}}</t>
-  </si>
-  <si>
-    <t>100001024</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001024}}</t>
-  </si>
-  <si>
-    <t>100001025</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001025}}</t>
-  </si>
-  <si>
-    <t>100001026</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001026}}</t>
-  </si>
-  <si>
-    <t>100001027</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001027}}</t>
-  </si>
-  <si>
-    <t>100001028</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001028}}</t>
-  </si>
-  <si>
-    <t>100001029</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001029}}</t>
-  </si>
-  <si>
-    <t>100001030</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001030}}</t>
-  </si>
-  <si>
-    <t>100001031</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001031}}</t>
-  </si>
-  <si>
-    <t>100001032</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001032}}</t>
-  </si>
-  <si>
-    <t>100001033</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001033}}</t>
-  </si>
-  <si>
-    <t>100001034</t>
-  </si>
-  <si>
-    <t>{"SensTek_S":{"mn":"ST7000","sn":100001034}}</t>
-  </si>
-  <si>
     <t>100001035</t>
   </si>
   <si>
@@ -320,6 +116,216 @@
   </si>
   <si>
     <t>{"SensTek_S":{"mn":"ST7000","sn":100001050}}</t>
+  </si>
+  <si>
+    <t>100001051</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001051}}</t>
+  </si>
+  <si>
+    <t>100001052</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001052}}</t>
+  </si>
+  <si>
+    <t>100001053</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001053}}</t>
+  </si>
+  <si>
+    <t>100001054</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001054}}</t>
+  </si>
+  <si>
+    <t>100001055</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001055}}</t>
+  </si>
+  <si>
+    <t>100001056</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001056}}</t>
+  </si>
+  <si>
+    <t>100001057</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001057}}</t>
+  </si>
+  <si>
+    <t>100001058</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001058}}</t>
+  </si>
+  <si>
+    <t>100001059</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001059}}</t>
+  </si>
+  <si>
+    <t>100001060</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001060}}</t>
+  </si>
+  <si>
+    <t>100001061</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001061}}</t>
+  </si>
+  <si>
+    <t>100001062</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001062}}</t>
+  </si>
+  <si>
+    <t>100001063</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001063}}</t>
+  </si>
+  <si>
+    <t>100001064</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001064}}</t>
+  </si>
+  <si>
+    <t>100001065</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001065}}</t>
+  </si>
+  <si>
+    <t>100001066</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001066}}</t>
+  </si>
+  <si>
+    <t>100001067</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001067}}</t>
+  </si>
+  <si>
+    <t>100001068</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001068}}</t>
+  </si>
+  <si>
+    <t>100001069</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001069}}</t>
+  </si>
+  <si>
+    <t>100001070</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001070}}</t>
+  </si>
+  <si>
+    <t>100001071</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001071}}</t>
+  </si>
+  <si>
+    <t>100001072</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001072}}</t>
+  </si>
+  <si>
+    <t>100001073</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001073}}</t>
+  </si>
+  <si>
+    <t>100001074</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001074}}</t>
+  </si>
+  <si>
+    <t>100001075</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001075}}</t>
+  </si>
+  <si>
+    <t>100001076</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001076}}</t>
+  </si>
+  <si>
+    <t>100001077</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001077}}</t>
+  </si>
+  <si>
+    <t>100001078</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001078}}</t>
+  </si>
+  <si>
+    <t>100001079</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001079}}</t>
+  </si>
+  <si>
+    <t>100001080</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001080}}</t>
+  </si>
+  <si>
+    <t>100001081</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001081}}</t>
+  </si>
+  <si>
+    <t>100001082</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001082}}</t>
+  </si>
+  <si>
+    <t>100001083</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001083}}</t>
+  </si>
+  <si>
+    <t>100001084</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001084}}</t>
+  </si>
+  <si>
+    <t>100001085</t>
+  </si>
+  <si>
+    <t>{"SensTek_S":{"mn":"ST7000","sn":100001085}}</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,6 +1071,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
